--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120686.6267228786</v>
+        <v>112437.2313615596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29990210.90098936</v>
+        <v>29990210.90098935</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4128974.758993714</v>
+        <v>4128974.758993713</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>140.6204626048488</v>
       </c>
       <c r="H11" t="n">
-        <v>204.5281633465511</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>136.7309641056443</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8596299154312</v>
+        <v>182.8596299154304</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>59.35693792082545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>161.7862571565654</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>142.7928034229494</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>49.74594227045058</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1785,7 +1785,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>65.93169399229406</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>81.6435565214617</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>328.6360591329871</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>366.2217482496093</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>30.97893315975465</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>257.1841096330669</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>314.5216875232963</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>287.2834137321198</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>170.0568708036705</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>44.84510248706184</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.0584736956206</v>
       </c>
       <c r="H23" t="n">
-        <v>95.08511500404963</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T23" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H24" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>43.67271780974921</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H25" t="n">
-        <v>45.97409477138073</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I25" t="n">
-        <v>68.59199721635848</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S25" t="n">
         <v>150.9449052174855</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307.278767131794</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>267.0297631480929</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.34346969091207</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T26" t="n">
         <v>208.9229806032259</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H27" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.59199721635848</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T28" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>147.1616272514208</v>
+        <v>74.95834090835325</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1619061043862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.84246215377863</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H30" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I31" t="n">
-        <v>68.59199721635848</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.445867145127856</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S31" t="n">
         <v>150.9449052174855</v>
@@ -3006,13 +3006,13 @@
         <v>236.6181441030213</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3278660122306</v>
+        <v>198.0730738068815</v>
       </c>
       <c r="V31" t="n">
-        <v>28.30296379518749</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>247.4491815910165</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>70.51186601283788</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T32" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H33" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>86.9601230179874</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I34" t="n">
-        <v>68.59199721635848</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.445867145127856</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>215.3300820303322</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>85.57782207737965</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>127.4758618428111</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H36" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.57795677850356</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I37" t="n">
-        <v>68.59199721635848</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.9722109091602</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3520,7 +3520,7 @@
         <v>398.0584736956206</v>
       </c>
       <c r="H38" t="n">
-        <v>244.682783878146</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.34346969091207</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>42.74164531313928</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H39" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>127.9756538858583</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.59199721635848</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.6181441030213</v>
+        <v>230.486659192871</v>
       </c>
       <c r="U40" t="n">
         <v>277.3278660122306</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>20.43326613720607</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>398.0584736956206</v>
       </c>
       <c r="H41" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.34346969091207</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>201.8845892662563</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H42" t="n">
-        <v>41.28176946329211</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>139.4799426380953</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I43" t="n">
-        <v>5.562468842074574</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.445867145127856</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>150.9449052174855</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>84.17813481549796</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6828108480144988</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.34346969091207</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.5923844622858</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>5.965034285928013</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4194,10 +4194,10 @@
         <v>277.3278660122306</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>198.4461202783731</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.8702704688479</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="C11" t="n">
-        <v>242.8702704688479</v>
+        <v>1029.418159059164</v>
       </c>
       <c r="D11" t="n">
-        <v>242.8702704688479</v>
+        <v>1029.418159059164</v>
       </c>
       <c r="E11" t="n">
-        <v>242.8702704688479</v>
+        <v>603.4412192070212</v>
       </c>
       <c r="F11" t="n">
-        <v>242.8702704688479</v>
+        <v>178.3170373964214</v>
       </c>
       <c r="G11" t="n">
-        <v>242.8702704688479</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J11" t="n">
         <v>184.296341114908</v>
@@ -5047,10 +5047,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5080,13 +5080,13 @@
         <v>1456.318889045863</v>
       </c>
       <c r="W11" t="n">
-        <v>1059.92753934621</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="X11" t="n">
-        <v>648.2075405139576</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.8702704688479</v>
+        <v>1456.318889045863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>628.9641045014113</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>805.6029553320602</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645392</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453737</v>
@@ -5153,19 +5153,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.2487291994763</v>
+        <v>619.6280083713864</v>
       </c>
       <c r="C13" t="n">
-        <v>36.27616607839228</v>
+        <v>447.6554452503024</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839228</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839228</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5205,19 +5205,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>912.7564163623085</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M13" t="n">
-        <v>1055.701197344776</v>
+        <v>654.3880318200453</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436724</v>
+        <v>1103.30558704015</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259049</v>
+        <v>1552.223142260254</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1753.851800969285</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.860966800883</v>
+        <v>1650.387842145306</v>
       </c>
       <c r="U13" t="n">
-        <v>1233.719265283387</v>
+        <v>1370.24614062781</v>
       </c>
       <c r="V13" t="n">
-        <v>952.0077978914162</v>
+        <v>1088.534673235839</v>
       </c>
       <c r="W13" t="n">
-        <v>677.1553940639292</v>
+        <v>1088.534673235839</v>
       </c>
       <c r="X13" t="n">
-        <v>434.5914975097343</v>
+        <v>845.9707766816443</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.2487291994763</v>
+        <v>619.6280083713864</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.5113210510684</v>
+        <v>1287.284918274192</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839228</v>
+        <v>1287.284918274192</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839228</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839228</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G14" t="n">
         <v>36.27616607839228</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149081</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303104</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1699.004917106445</v>
       </c>
       <c r="W14" t="n">
-        <v>1417.416954219961</v>
+        <v>1699.004917106445</v>
       </c>
       <c r="X14" t="n">
-        <v>1005.696955387708</v>
+        <v>1287.284918274192</v>
       </c>
       <c r="Y14" t="n">
-        <v>600.3596853425985</v>
+        <v>1287.284918274192</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G15" t="n">
         <v>80.62417733004328</v>
@@ -5357,25 +5357,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967557</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274047</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>653.1035252084198</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N15" t="n">
-        <v>870.258507040736</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1065.302174028223</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P15" t="n">
-        <v>1514.219729248327</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453737</v>
@@ -5387,22 +5387,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.137999643809</v>
+        <v>848.6204946973381</v>
       </c>
       <c r="C16" t="n">
-        <v>916.1654365227246</v>
+        <v>676.6479315762541</v>
       </c>
       <c r="D16" t="n">
-        <v>752.8486636494953</v>
+        <v>676.6479315762541</v>
       </c>
       <c r="E16" t="n">
-        <v>586.6404578023488</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F16" t="n">
-        <v>414.7786835769092</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
@@ -5442,16 +5442,16 @@
         <v>216.556252028182</v>
       </c>
       <c r="L16" t="n">
-        <v>309.0520751284042</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M16" t="n">
-        <v>757.9696303485086</v>
+        <v>407.1054227060233</v>
       </c>
       <c r="N16" t="n">
-        <v>1206.887185568613</v>
+        <v>790.0754760389441</v>
       </c>
       <c r="O16" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
         <v>1622.490343973492</v>
@@ -5460,28 +5460,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.808303919614</v>
+        <v>1363.818598874166</v>
       </c>
       <c r="W16" t="n">
-        <v>1747.210633220327</v>
+        <v>1363.818598874166</v>
       </c>
       <c r="X16" t="n">
-        <v>1504.646736666132</v>
+        <v>1121.254702319971</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.303968355874</v>
+        <v>1038.786463409404</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>648.2075405139581</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="C17" t="n">
-        <v>648.2075405139581</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="D17" t="n">
-        <v>648.2075405139581</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="E17" t="n">
-        <v>648.2075405139581</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F17" t="n">
-        <v>648.2075405139581</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
         <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149086</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250306</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303109</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103486</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
@@ -5545,22 +5545,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045864</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.927539346211</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="X17" t="n">
-        <v>648.2075405139581</v>
+        <v>831.3213057168803</v>
       </c>
       <c r="Y17" t="n">
-        <v>648.2075405139581</v>
+        <v>461.4003478889921</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
         <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>628.9641045014104</v>
+        <v>628.964104501411</v>
       </c>
       <c r="L18" t="n">
-        <v>805.6029553320593</v>
+        <v>805.60295533206</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813074</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N18" t="n">
         <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632877</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.47441747923</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>703.2469829519461</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C19" t="n">
-        <v>531.274419830862</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D19" t="n">
-        <v>367.9576469576327</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
-        <v>201.7494411104863</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583899</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>138.6345353799612</v>
+        <v>157.8660869045673</v>
       </c>
       <c r="L19" t="n">
-        <v>231.1303584801833</v>
+        <v>606.7836421246717</v>
       </c>
       <c r="M19" t="n">
-        <v>492.5314181967389</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N19" t="n">
-        <v>941.4489734168435</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636948</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P19" t="n">
-        <v>1773.863841351392</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1782.516452243095</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1782.516452243095</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1502.374750725599</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.663283333628</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="W19" t="n">
-        <v>945.810879506141</v>
+        <v>1039.183137001434</v>
       </c>
       <c r="X19" t="n">
-        <v>703.2469829519461</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y19" t="n">
-        <v>703.2469829519461</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1059.927539346211</v>
+        <v>888.301077875692</v>
       </c>
       <c r="C20" t="n">
-        <v>1059.927539346211</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="D20" t="n">
-        <v>1059.927539346211</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="E20" t="n">
-        <v>633.9505994940683</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>633.9505994940683</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V20" t="n">
-        <v>1456.318889045864</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W20" t="n">
-        <v>1059.927539346211</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="X20" t="n">
-        <v>1059.927539346211</v>
+        <v>888.301077875692</v>
       </c>
       <c r="Y20" t="n">
-        <v>1059.927539346211</v>
+        <v>888.301077875692</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968662</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663468</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969959</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M21" t="n">
-        <v>945.206017678011</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N21" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O21" t="n">
-        <v>1357.404666497814</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P21" t="n">
         <v>1580.47441747923</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>336.4214493448033</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C22" t="n">
-        <v>336.4214493448033</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.150387535839</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799612</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>587.5520906000659</v>
+        <v>587.5520906000655</v>
       </c>
       <c r="M22" t="n">
-        <v>1036.46964582017</v>
+        <v>685.6054381776847</v>
       </c>
       <c r="N22" t="n">
-        <v>1485.387201040275</v>
+        <v>1102.831680612252</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210256</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351392</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1642.03368694621</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U22" t="n">
-        <v>1361.891985428714</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V22" t="n">
-        <v>1080.180518036743</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W22" t="n">
-        <v>805.3281142092562</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X22" t="n">
-        <v>562.7642176550613</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y22" t="n">
-        <v>336.4214493448033</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1821.567564396693</v>
+        <v>725.853493422984</v>
       </c>
       <c r="C23" t="n">
-        <v>1821.567564396693</v>
+        <v>725.853493422984</v>
       </c>
       <c r="D23" t="n">
-        <v>1398.274943581693</v>
+        <v>725.853493422984</v>
       </c>
       <c r="E23" t="n">
-        <v>972.2980037295509</v>
+        <v>725.853493422984</v>
       </c>
       <c r="F23" t="n">
-        <v>547.1738219189511</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G23" t="n">
-        <v>145.0945555597384</v>
+        <v>323.7742270637711</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04898484857711</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I23" t="n">
-        <v>100.2336449326253</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J23" t="n">
-        <v>259.0884825884571</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K23" t="n">
-        <v>505.415714580942</v>
+        <v>505.4157145809426</v>
       </c>
       <c r="L23" t="n">
-        <v>817.002963913362</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M23" t="n">
         <v>1168.850098815876</v>
       </c>
       <c r="N23" t="n">
-        <v>1527.140232067527</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O23" t="n">
-        <v>1863.29646503233</v>
+        <v>1863.296465032331</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.591619978894</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q23" t="n">
-        <v>2348.004495197634</v>
+        <v>2348.004495197635</v>
       </c>
       <c r="R23" t="n">
         <v>2452.449242428856</v>
       </c>
       <c r="S23" t="n">
-        <v>2452.449242428856</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T23" t="n">
-        <v>2241.415928688223</v>
+        <v>2188.543737081242</v>
       </c>
       <c r="U23" t="n">
-        <v>2241.415928688223</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V23" t="n">
-        <v>2241.415928688223</v>
+        <v>1572.880196488011</v>
       </c>
       <c r="W23" t="n">
-        <v>2241.415928688223</v>
+        <v>1176.488846788358</v>
       </c>
       <c r="X23" t="n">
-        <v>2241.415928688223</v>
+        <v>1176.488846788358</v>
       </c>
       <c r="Y23" t="n">
-        <v>2241.415928688223</v>
+        <v>771.1515767432485</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>183.592416182982</v>
       </c>
       <c r="G24" t="n">
-        <v>90.7477418822055</v>
+        <v>90.74774188220552</v>
       </c>
       <c r="H24" t="n">
-        <v>49.04898484857711</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I24" t="n">
-        <v>73.83891875389243</v>
+        <v>73.83891875389244</v>
       </c>
       <c r="J24" t="n">
         <v>165.3938716666096</v>
       </c>
       <c r="K24" t="n">
-        <v>334.57602787059</v>
+        <v>334.5760278705901</v>
       </c>
       <c r="L24" t="n">
-        <v>569.5897281994004</v>
+        <v>569.5897281994005</v>
       </c>
       <c r="M24" t="n">
-        <v>846.9851226809969</v>
+        <v>846.9851226809972</v>
       </c>
       <c r="N24" t="n">
         <v>1134.063752637573</v>
@@ -6086,10 +6086,10 @@
         <v>1393.073896965263</v>
       </c>
       <c r="P24" t="n">
-        <v>1597.810749261387</v>
+        <v>1597.810749261388</v>
       </c>
       <c r="Q24" t="n">
-        <v>1726.560043637156</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R24" t="n">
         <v>1817.4386691009</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>840.0581562757827</v>
+        <v>806.3091771387258</v>
       </c>
       <c r="C25" t="n">
-        <v>668.0855931546987</v>
+        <v>634.3366140176418</v>
       </c>
       <c r="D25" t="n">
-        <v>668.0855931546987</v>
+        <v>634.3366140176418</v>
       </c>
       <c r="E25" t="n">
-        <v>501.8773873075522</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F25" t="n">
-        <v>330.0156130821126</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G25" t="n">
-        <v>164.7723100887177</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H25" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04898484857711</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J25" t="n">
-        <v>98.85867488164489</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K25" t="n">
-        <v>193.5296927780285</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L25" t="n">
-        <v>695.9245873125051</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M25" t="n">
-        <v>1242.845199414851</v>
+        <v>1183.824516737573</v>
       </c>
       <c r="N25" t="n">
-        <v>1772.368501556012</v>
+        <v>1713.347818878734</v>
       </c>
       <c r="O25" t="n">
-        <v>2268.222596527593</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P25" t="n">
-        <v>2393.630972344875</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q25" t="n">
         <v>2452.449242428856</v>
       </c>
       <c r="R25" t="n">
-        <v>2452.449242428856</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S25" t="n">
-        <v>2299.979641199072</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T25" t="n">
-        <v>2060.971414832384</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="U25" t="n">
-        <v>1780.842257244272</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.130789852301</v>
+        <v>1497.670317988536</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.130789852301</v>
+        <v>1222.817914161049</v>
       </c>
       <c r="X25" t="n">
-        <v>1256.566893298106</v>
+        <v>1222.817914161049</v>
       </c>
       <c r="Y25" t="n">
-        <v>1030.224124987848</v>
+        <v>996.4751458507915</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.04898484857712</v>
+        <v>1572.880196488012</v>
       </c>
       <c r="C26" t="n">
-        <v>49.04898484857712</v>
+        <v>1145.979466501312</v>
       </c>
       <c r="D26" t="n">
-        <v>49.04898484857712</v>
+        <v>1145.979466501312</v>
       </c>
       <c r="E26" t="n">
-        <v>49.04898484857712</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="F26" t="n">
-        <v>49.04898484857712</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G26" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2336449326253</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J26" t="n">
         <v>259.0884825884577</v>
       </c>
       <c r="K26" t="n">
-        <v>505.4157145809424</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L26" t="n">
-        <v>817.0029639133622</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N26" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O26" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P26" t="n">
-        <v>2144.591619978894</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q26" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R26" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S26" t="n">
-        <v>2399.577050821874</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.543737081242</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U26" t="n">
-        <v>1930.369611361761</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V26" t="n">
-        <v>1572.880196488011</v>
+        <v>1572.880196488012</v>
       </c>
       <c r="W26" t="n">
-        <v>1176.488846788358</v>
+        <v>1572.880196488012</v>
       </c>
       <c r="X26" t="n">
-        <v>764.768847956105</v>
+        <v>1572.880196488012</v>
       </c>
       <c r="Y26" t="n">
-        <v>359.4315779109953</v>
+        <v>1572.880196488012</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.2860421943508</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C27" t="n">
-        <v>485.7801387118556</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D27" t="n">
-        <v>381.9401802271406</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E27" t="n">
-        <v>277.2382465000778</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F27" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G27" t="n">
-        <v>90.74774188220552</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H27" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I27" t="n">
-        <v>73.83891875389243</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J27" t="n">
-        <v>165.3938716666096</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K27" t="n">
-        <v>334.57602787059</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L27" t="n">
-        <v>569.5897281994004</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M27" t="n">
-        <v>846.9851226809969</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N27" t="n">
-        <v>1134.063752637573</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O27" t="n">
-        <v>1393.073896965263</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P27" t="n">
-        <v>1597.810749261387</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q27" t="n">
-        <v>1726.560043637156</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R27" t="n">
         <v>1817.4386691009</v>
@@ -6347,10 +6347,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X27" t="n">
-        <v>871.9059402611211</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.2130516144135</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.720299485617</v>
+        <v>956.9364495819608</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7477363645335</v>
+        <v>784.9638864608768</v>
       </c>
       <c r="D28" t="n">
-        <v>756.4309634913042</v>
+        <v>621.6471135876475</v>
       </c>
       <c r="E28" t="n">
-        <v>590.2227576441577</v>
+        <v>455.438907740501</v>
       </c>
       <c r="F28" t="n">
-        <v>418.3609834187181</v>
+        <v>283.5771335150614</v>
       </c>
       <c r="G28" t="n">
-        <v>253.1176804253233</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H28" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J28" t="n">
-        <v>98.8586748816449</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K28" t="n">
-        <v>193.5296927780285</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L28" t="n">
-        <v>695.9245873125051</v>
+        <v>644.7400194835832</v>
       </c>
       <c r="M28" t="n">
-        <v>1242.845199414851</v>
+        <v>806.1221924343703</v>
       </c>
       <c r="N28" t="n">
-        <v>1772.368501556012</v>
+        <v>1335.645494575532</v>
       </c>
       <c r="O28" t="n">
-        <v>2268.222596527593</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P28" t="n">
-        <v>2393.630972344876</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q28" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R28" t="n">
-        <v>2452.449242428856</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S28" t="n">
-        <v>2452.449242428856</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T28" t="n">
-        <v>2213.441016062168</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U28" t="n">
-        <v>2213.441016062168</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V28" t="n">
-        <v>1931.729548670197</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W28" t="n">
-        <v>1656.87714484271</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.229036507941</v>
+        <v>1147.102418294026</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.886268197683</v>
+        <v>1147.102418294026</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>867.0001147316693</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C29" t="n">
-        <v>440.0993847449694</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D29" t="n">
-        <v>323.7742270637712</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E29" t="n">
-        <v>323.7742270637712</v>
+        <v>474.1731666591769</v>
       </c>
       <c r="F29" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="G29" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I29" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J29" t="n">
-        <v>259.0884825884575</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K29" t="n">
-        <v>505.4157145809425</v>
+        <v>505.4157145809424</v>
       </c>
       <c r="L29" t="n">
-        <v>817.0029639133624</v>
+        <v>817.0029639133625</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.850098815877</v>
+        <v>1168.850098815876</v>
       </c>
       <c r="N29" t="n">
         <v>1527.140232067528</v>
@@ -6481,7 +6481,7 @@
         <v>1863.296465032331</v>
       </c>
       <c r="P29" t="n">
-        <v>2144.591619978894</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q29" t="n">
         <v>2348.004495197635</v>
@@ -6490,25 +6490,25 @@
         <v>2452.449242428856</v>
       </c>
       <c r="S29" t="n">
-        <v>2452.449242428856</v>
+        <v>2428.36594732403</v>
       </c>
       <c r="T29" t="n">
-        <v>2452.449242428856</v>
+        <v>2428.36594732403</v>
       </c>
       <c r="U29" t="n">
-        <v>2452.449242428856</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="V29" t="n">
-        <v>2094.959827555105</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="W29" t="n">
-        <v>1698.568477855452</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="X29" t="n">
-        <v>1286.848479023199</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1286.848479023199</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="30">
@@ -6536,19 +6536,19 @@
         <v>90.74774188220552</v>
       </c>
       <c r="H30" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I30" t="n">
-        <v>73.83891875389243</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J30" t="n">
-        <v>206.1324773779053</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K30" t="n">
-        <v>375.3146335818857</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L30" t="n">
-        <v>610.3283339106961</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M30" t="n">
         <v>887.7237283922925</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.720299485617</v>
+        <v>925.512093638471</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7477363645335</v>
+        <v>753.539530517387</v>
       </c>
       <c r="D31" t="n">
-        <v>756.4309634913042</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="E31" t="n">
         <v>590.2227576441577</v>
@@ -6618,55 +6618,55 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J31" t="n">
-        <v>98.8586748816449</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K31" t="n">
-        <v>193.5296927780285</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L31" t="n">
-        <v>695.9245873125051</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M31" t="n">
-        <v>1242.845199414851</v>
+        <v>1154.514044714272</v>
       </c>
       <c r="N31" t="n">
-        <v>1772.368501556012</v>
+        <v>1684.037346855433</v>
       </c>
       <c r="O31" t="n">
-        <v>2268.222596527593</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P31" t="n">
-        <v>2393.630972344876</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q31" t="n">
         <v>2452.449242428856</v>
       </c>
       <c r="R31" t="n">
-        <v>2450.98877056509</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.519169335307</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T31" t="n">
         <v>2059.510942968619</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.381785380507</v>
+        <v>1859.437131042476</v>
       </c>
       <c r="V31" t="n">
-        <v>1750.792933062136</v>
+        <v>1859.437131042476</v>
       </c>
       <c r="W31" t="n">
-        <v>1750.792933062136</v>
+        <v>1584.584727214989</v>
       </c>
       <c r="X31" t="n">
-        <v>1508.229036507941</v>
+        <v>1342.020830660795</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.886268197683</v>
+        <v>1115.678062350537</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1821.567564396694</v>
+        <v>975.802161696738</v>
       </c>
       <c r="C32" t="n">
-        <v>1394.666834409994</v>
+        <v>975.802161696738</v>
       </c>
       <c r="D32" t="n">
-        <v>971.374213594994</v>
+        <v>725.853493422984</v>
       </c>
       <c r="E32" t="n">
-        <v>545.3972737428516</v>
+        <v>725.853493422984</v>
       </c>
       <c r="F32" t="n">
-        <v>120.2730919322518</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G32" t="n">
-        <v>49.04898484857712</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2336449326256</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J32" t="n">
-        <v>259.0884825884573</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K32" t="n">
-        <v>505.4157145809421</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L32" t="n">
-        <v>817.002963913362</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N32" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O32" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P32" t="n">
         <v>2144.591619978895</v>
       </c>
       <c r="Q32" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R32" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S32" t="n">
-        <v>2452.449242428856</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T32" t="n">
-        <v>2241.415928688224</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U32" t="n">
-        <v>2241.415928688224</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="V32" t="n">
-        <v>2241.415928688224</v>
+        <v>1783.913510228644</v>
       </c>
       <c r="W32" t="n">
-        <v>2241.415928688224</v>
+        <v>1387.522160528991</v>
       </c>
       <c r="X32" t="n">
-        <v>2241.415928688224</v>
+        <v>975.802161696738</v>
       </c>
       <c r="Y32" t="n">
-        <v>2241.415928688224</v>
+        <v>975.802161696738</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.2860421943508</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C33" t="n">
-        <v>485.7801387118556</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D33" t="n">
-        <v>381.9401802271406</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E33" t="n">
-        <v>277.2382465000778</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F33" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G33" t="n">
-        <v>90.74774188220552</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I33" t="n">
-        <v>73.83891875389243</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J33" t="n">
-        <v>165.3938716666096</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K33" t="n">
-        <v>334.57602787059</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L33" t="n">
-        <v>569.5897281994004</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M33" t="n">
-        <v>846.9851226809969</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N33" t="n">
-        <v>1134.063752637573</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O33" t="n">
-        <v>1433.812502676559</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P33" t="n">
         <v>1638.549354972683</v>
@@ -6821,10 +6821,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X33" t="n">
-        <v>871.9059402611211</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.2130516144135</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>716.2148818143137</v>
+        <v>1091.720299485617</v>
       </c>
       <c r="C34" t="n">
-        <v>544.2423186932297</v>
+        <v>919.7477363645335</v>
       </c>
       <c r="D34" t="n">
-        <v>456.4038105942525</v>
+        <v>756.4309634913042</v>
       </c>
       <c r="E34" t="n">
-        <v>290.1956047471061</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F34" t="n">
-        <v>118.3338305216665</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G34" t="n">
-        <v>118.3338305216665</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H34" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J34" t="n">
-        <v>176.7803915298658</v>
+        <v>126.2653698523709</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9517839620195</v>
+        <v>220.9363877487545</v>
       </c>
       <c r="L34" t="n">
-        <v>571.9577849053311</v>
+        <v>723.3312822832312</v>
       </c>
       <c r="M34" t="n">
-        <v>1118.878397007677</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N34" t="n">
-        <v>1648.401699148838</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O34" t="n">
-        <v>2144.255794120419</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P34" t="n">
-        <v>2242.257474966977</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q34" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R34" t="n">
-        <v>2450.98877056509</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S34" t="n">
-        <v>2450.98877056509</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T34" t="n">
-        <v>2211.980544198402</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="U34" t="n">
-        <v>1931.85138661029</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.139919218319</v>
+        <v>2016.807701943337</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.287515390832</v>
+        <v>1741.95529811585</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.723618836637</v>
+        <v>1499.391401561655</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.3808505263794</v>
+        <v>1281.886268197683</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1836.785701835625</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="C35" t="n">
-        <v>1409.884971848925</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="D35" t="n">
-        <v>986.5923510339251</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="E35" t="n">
-        <v>560.6154111817826</v>
+        <v>451.12825120779</v>
       </c>
       <c r="F35" t="n">
-        <v>135.4912293711828</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G35" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H35" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I35" t="n">
-        <v>100.2336449326253</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J35" t="n">
-        <v>259.0884825884573</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K35" t="n">
-        <v>505.4157145809426</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L35" t="n">
-        <v>817.0029639133625</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M35" t="n">
         <v>1168.850098815877</v>
@@ -6958,31 +6958,31 @@
         <v>2144.591619978895</v>
       </c>
       <c r="Q35" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R35" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S35" t="n">
-        <v>2452.449242428856</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T35" t="n">
-        <v>2452.449242428856</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U35" t="n">
-        <v>2194.275116709375</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="V35" t="n">
-        <v>1836.785701835625</v>
+        <v>1831.054322207492</v>
       </c>
       <c r="W35" t="n">
-        <v>1836.785701835625</v>
+        <v>1702.290825396572</v>
       </c>
       <c r="X35" t="n">
-        <v>1836.785701835625</v>
+        <v>1702.290825396572</v>
       </c>
       <c r="Y35" t="n">
-        <v>1836.785701835625</v>
+        <v>1296.953555351462</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.2860421943508</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C36" t="n">
-        <v>485.7801387118556</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D36" t="n">
-        <v>381.9401802271406</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E36" t="n">
-        <v>277.2382465000778</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F36" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G36" t="n">
-        <v>90.74774188220552</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H36" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I36" t="n">
-        <v>97.29622459830426</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J36" t="n">
-        <v>206.1324773779053</v>
+        <v>165.3938716666096</v>
       </c>
       <c r="K36" t="n">
-        <v>375.3146335818857</v>
+        <v>334.5760278705901</v>
       </c>
       <c r="L36" t="n">
-        <v>610.3283339106961</v>
+        <v>569.5897281994006</v>
       </c>
       <c r="M36" t="n">
-        <v>887.7237283922925</v>
+        <v>846.9851226809972</v>
       </c>
       <c r="N36" t="n">
-        <v>1174.802358348868</v>
+        <v>1134.063752637573</v>
       </c>
       <c r="O36" t="n">
-        <v>1433.812502676559</v>
+        <v>1393.073896965263</v>
       </c>
       <c r="P36" t="n">
-        <v>1638.549354972683</v>
+        <v>1597.810749261388</v>
       </c>
       <c r="Q36" t="n">
-        <v>1767.298649348451</v>
+        <v>1726.560043637156</v>
       </c>
       <c r="R36" t="n">
         <v>1817.4386691009</v>
@@ -7058,10 +7058,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X36" t="n">
-        <v>871.9059402611211</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.2130516144135</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.720299485617</v>
+        <v>859.1186809392989</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7477363645335</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="D37" t="n">
-        <v>756.4309634913042</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="E37" t="n">
-        <v>590.2227576441577</v>
+        <v>520.9379119710684</v>
       </c>
       <c r="F37" t="n">
-        <v>418.3609834187181</v>
+        <v>349.0761377456288</v>
       </c>
       <c r="G37" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H37" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I37" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J37" t="n">
         <v>176.7803915298658</v>
@@ -7101,46 +7101,46 @@
         <v>518.7340185402714</v>
       </c>
       <c r="L37" t="n">
-        <v>644.7400194835831</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.660631585929</v>
+        <v>1154.514044714272</v>
       </c>
       <c r="N37" t="n">
-        <v>1721.18393372709</v>
+        <v>1335.645494575532</v>
       </c>
       <c r="O37" t="n">
-        <v>2217.038028698671</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P37" t="n">
-        <v>2315.039709545229</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q37" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R37" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S37" t="n">
-        <v>2452.449242428856</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T37" t="n">
-        <v>2452.449242428856</v>
+        <v>2074.755185735276</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.320084840744</v>
+        <v>2074.755185735276</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.608617448773</v>
+        <v>1793.043718343304</v>
       </c>
       <c r="W37" t="n">
-        <v>1615.756213621286</v>
+        <v>1518.191314515817</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.192317067091</v>
+        <v>1275.627417961623</v>
       </c>
       <c r="Y37" t="n">
-        <v>1146.849548756833</v>
+        <v>1049.284649651365</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2399.577050821874</v>
+        <v>1725.521993685532</v>
       </c>
       <c r="C38" t="n">
-        <v>1972.676320835174</v>
+        <v>1725.521993685532</v>
       </c>
       <c r="D38" t="n">
-        <v>1549.383700020175</v>
+        <v>1302.229372870532</v>
       </c>
       <c r="E38" t="n">
-        <v>1123.406760168032</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2825783574324</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G38" t="n">
-        <v>296.2033119982196</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H38" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I38" t="n">
-        <v>100.2336449326259</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J38" t="n">
-        <v>259.0884825884572</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K38" t="n">
-        <v>505.4157145809422</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L38" t="n">
-        <v>817.002963913362</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O38" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P38" t="n">
-        <v>2144.591619978894</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q38" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R38" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S38" t="n">
-        <v>2399.577050821874</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.577050821874</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U38" t="n">
-        <v>2399.577050821874</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="V38" t="n">
-        <v>2399.577050821874</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="W38" t="n">
-        <v>2399.577050821874</v>
+        <v>2145.370357977062</v>
       </c>
       <c r="X38" t="n">
-        <v>2399.577050821874</v>
+        <v>2145.370357977062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2399.577050821874</v>
+        <v>2145.370357977062</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.2860421943508</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C39" t="n">
-        <v>485.7801387118556</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D39" t="n">
-        <v>381.9401802271406</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E39" t="n">
-        <v>277.2382465000778</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F39" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G39" t="n">
-        <v>90.74774188220552</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H39" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I39" t="n">
-        <v>73.83891875389243</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J39" t="n">
-        <v>165.3938716666096</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K39" t="n">
-        <v>334.57602787059</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L39" t="n">
-        <v>569.5897281994004</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9851226809969</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N39" t="n">
-        <v>1134.063752637573</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O39" t="n">
-        <v>1433.812502676559</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P39" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q39" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R39" t="n">
         <v>1817.4386691009</v>
@@ -7295,10 +7295,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X39" t="n">
-        <v>871.9059402611211</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.2130516144135</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.6753536780793</v>
+        <v>722.4083009154765</v>
       </c>
       <c r="C40" t="n">
-        <v>545.7027905569953</v>
+        <v>550.4357377943925</v>
       </c>
       <c r="D40" t="n">
-        <v>382.386017683766</v>
+        <v>387.1189649211632</v>
       </c>
       <c r="E40" t="n">
-        <v>382.386017683766</v>
+        <v>220.9107590740167</v>
       </c>
       <c r="F40" t="n">
-        <v>382.386017683766</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G40" t="n">
-        <v>253.1176804253233</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H40" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I40" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J40" t="n">
         <v>176.7803915298658</v>
@@ -7338,46 +7338,46 @@
         <v>518.7340185402714</v>
       </c>
       <c r="L40" t="n">
-        <v>644.7400194835831</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.660631585929</v>
+        <v>1568.049525177094</v>
       </c>
       <c r="N40" t="n">
-        <v>1721.18393372709</v>
+        <v>1713.347818878735</v>
       </c>
       <c r="O40" t="n">
-        <v>2217.038028698671</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P40" t="n">
-        <v>2315.039709545229</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q40" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R40" t="n">
-        <v>2452.449242428856</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S40" t="n">
-        <v>2452.449242428856</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="T40" t="n">
-        <v>2213.441016062168</v>
+        <v>2218.173963299565</v>
       </c>
       <c r="U40" t="n">
-        <v>1933.311858474056</v>
+        <v>1938.044805711453</v>
       </c>
       <c r="V40" t="n">
-        <v>1651.600391082085</v>
+        <v>1656.333338319482</v>
       </c>
       <c r="W40" t="n">
-        <v>1376.747987254598</v>
+        <v>1381.480934491995</v>
       </c>
       <c r="X40" t="n">
-        <v>1134.184090700403</v>
+        <v>1138.9170379378</v>
       </c>
       <c r="Y40" t="n">
-        <v>907.841322390145</v>
+        <v>912.5742696275422</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1171.617337998438</v>
+        <v>1726.445783820089</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.617337998438</v>
+        <v>1299.545053833389</v>
       </c>
       <c r="D41" t="n">
-        <v>1171.617337998438</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="E41" t="n">
-        <v>1150.977675233584</v>
+        <v>876.2524330183898</v>
       </c>
       <c r="F41" t="n">
-        <v>725.853493422984</v>
+        <v>451.12825120779</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H41" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I41" t="n">
-        <v>100.2336449326253</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J41" t="n">
         <v>259.0884825884577</v>
       </c>
       <c r="K41" t="n">
-        <v>505.4157145809422</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L41" t="n">
-        <v>817.002963913362</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N41" t="n">
-        <v>1527.140232067528</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O41" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P41" t="n">
-        <v>2144.591619978894</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q41" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R41" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S41" t="n">
-        <v>2399.577050821874</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.577050821874</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U41" t="n">
-        <v>2399.577050821874</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V41" t="n">
-        <v>2399.577050821874</v>
+        <v>1726.445783820089</v>
       </c>
       <c r="W41" t="n">
-        <v>2003.185701122221</v>
+        <v>1726.445783820089</v>
       </c>
       <c r="X41" t="n">
-        <v>1591.465702289968</v>
+        <v>1726.445783820089</v>
       </c>
       <c r="Y41" t="n">
-        <v>1591.465702289968</v>
+        <v>1726.445783820089</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.2860421943508</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C42" t="n">
-        <v>485.7801387118556</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D42" t="n">
-        <v>381.9401802271406</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E42" t="n">
-        <v>277.2382465000778</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F42" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G42" t="n">
-        <v>90.74774188220552</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H42" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I42" t="n">
-        <v>73.83891875389243</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J42" t="n">
-        <v>165.3938716666096</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K42" t="n">
-        <v>334.57602787059</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L42" t="n">
-        <v>569.5897281994004</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M42" t="n">
-        <v>846.9851226809969</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N42" t="n">
-        <v>1134.063752637573</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O42" t="n">
-        <v>1393.073896965263</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P42" t="n">
-        <v>1597.810749261387</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q42" t="n">
-        <v>1726.560043637156</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R42" t="n">
         <v>1817.4386691009</v>
@@ -7532,10 +7532,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X42" t="n">
-        <v>871.9059402611211</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.2130516144135</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.7452805845305</v>
+        <v>1066.400924586042</v>
       </c>
       <c r="C43" t="n">
-        <v>391.7727174634465</v>
+        <v>894.428361464958</v>
       </c>
       <c r="D43" t="n">
-        <v>391.7727174634465</v>
+        <v>731.1115885917287</v>
       </c>
       <c r="E43" t="n">
-        <v>391.7727174634465</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F43" t="n">
-        <v>219.9109432380069</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G43" t="n">
-        <v>54.66764024461204</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H43" t="n">
-        <v>54.66764024461204</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I43" t="n">
-        <v>49.04898484857712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J43" t="n">
         <v>176.7803915298658</v>
       </c>
       <c r="K43" t="n">
-        <v>518.7340185402714</v>
+        <v>445.9517839620203</v>
       </c>
       <c r="L43" t="n">
-        <v>1021.128913074748</v>
+        <v>571.957784905332</v>
       </c>
       <c r="M43" t="n">
-        <v>1204.155115276249</v>
+        <v>1118.878397007678</v>
       </c>
       <c r="N43" t="n">
-        <v>1335.645494575531</v>
+        <v>1648.401699148839</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.499589547112</v>
+        <v>2144.25579412042</v>
       </c>
       <c r="P43" t="n">
         <v>2242.257474966977</v>
       </c>
       <c r="Q43" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R43" t="n">
-        <v>2450.98877056509</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S43" t="n">
-        <v>2298.519169335307</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T43" t="n">
-        <v>2059.510942968619</v>
+        <v>2060.971414832386</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.381785380507</v>
+        <v>1780.842257244274</v>
       </c>
       <c r="V43" t="n">
-        <v>1497.670317988536</v>
+        <v>1499.130789852303</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.817914161049</v>
+        <v>1499.130789852303</v>
       </c>
       <c r="X43" t="n">
-        <v>980.2540176068541</v>
+        <v>1256.566893298108</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.9112492965961</v>
+        <v>1256.566893298108</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1176.488846788358</v>
+        <v>560.9781338408305</v>
       </c>
       <c r="C44" t="n">
-        <v>749.5881168016583</v>
+        <v>134.0774038541306</v>
       </c>
       <c r="D44" t="n">
-        <v>749.5881168016583</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="E44" t="n">
-        <v>748.8984088743709</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="F44" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H44" t="n">
-        <v>49.04898484857713</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I44" t="n">
-        <v>100.2336449326258</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J44" t="n">
-        <v>259.0884825884573</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K44" t="n">
-        <v>505.4157145809423</v>
+        <v>505.4157145809426</v>
       </c>
       <c r="L44" t="n">
-        <v>817.0029639133621</v>
+        <v>817.0029639133624</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.850098815876</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N44" t="n">
         <v>1527.140232067528</v>
       </c>
       <c r="O44" t="n">
-        <v>1863.296465032331</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P44" t="n">
         <v>2144.591619978895</v>
       </c>
       <c r="Q44" t="n">
-        <v>2348.004495197635</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R44" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S44" t="n">
-        <v>2399.577050821875</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T44" t="n">
-        <v>2188.543737081242</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="U44" t="n">
-        <v>1930.369611361762</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="V44" t="n">
-        <v>1572.880196488011</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.488846788358</v>
+        <v>1797.883767009723</v>
       </c>
       <c r="X44" t="n">
-        <v>1176.488846788358</v>
+        <v>1386.16376817747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1176.488846788358</v>
+        <v>980.8264981323606</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H45" t="n">
-        <v>49.04898484857713</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I45" t="n">
-        <v>73.83891875389244</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J45" t="n">
-        <v>165.3938716666096</v>
+        <v>188.8511775110214</v>
       </c>
       <c r="K45" t="n">
-        <v>334.57602787059</v>
+        <v>375.3146335818857</v>
       </c>
       <c r="L45" t="n">
-        <v>569.5897281994004</v>
+        <v>610.3283339106961</v>
       </c>
       <c r="M45" t="n">
-        <v>846.9851226809969</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N45" t="n">
-        <v>1134.063752637573</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O45" t="n">
-        <v>1393.073896965263</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P45" t="n">
-        <v>1597.810749261387</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q45" t="n">
-        <v>1726.560043637156</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R45" t="n">
         <v>1817.4386691009</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.8585252601779</v>
+        <v>747.885962139094</v>
       </c>
       <c r="C46" t="n">
-        <v>747.8859621390939</v>
+        <v>747.885962139094</v>
       </c>
       <c r="D46" t="n">
-        <v>584.5691892658646</v>
+        <v>584.5691892658647</v>
       </c>
       <c r="E46" t="n">
-        <v>418.3609834187181</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="F46" t="n">
-        <v>418.3609834187181</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="G46" t="n">
         <v>253.1176804253233</v>
@@ -7803,31 +7803,31 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I46" t="n">
-        <v>49.04898484857713</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J46" t="n">
         <v>176.7803915298658</v>
       </c>
       <c r="K46" t="n">
-        <v>518.7340185402714</v>
+        <v>271.4514094262494</v>
       </c>
       <c r="L46" t="n">
-        <v>644.7400194835831</v>
+        <v>397.457410369561</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.660631585929</v>
+        <v>944.3780224719069</v>
       </c>
       <c r="N46" t="n">
-        <v>1721.18393372709</v>
+        <v>1473.901324613068</v>
       </c>
       <c r="O46" t="n">
-        <v>2217.038028698671</v>
+        <v>1969.755419584649</v>
       </c>
       <c r="P46" t="n">
-        <v>2393.630972344876</v>
+        <v>2380.513305004514</v>
       </c>
       <c r="Q46" t="n">
-        <v>2452.449242428856</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R46" t="n">
         <v>2450.988770565091</v>
@@ -7836,22 +7836,22 @@
         <v>2298.519169335308</v>
       </c>
       <c r="T46" t="n">
-        <v>2059.510942968619</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U46" t="n">
         <v>1779.381785380508</v>
       </c>
       <c r="V46" t="n">
-        <v>1779.381785380508</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.931158836696</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X46" t="n">
-        <v>1336.367262282502</v>
+        <v>980.254017606855</v>
       </c>
       <c r="Y46" t="n">
-        <v>1110.024493972244</v>
+        <v>753.911249296597</v>
       </c>
     </row>
   </sheetData>
@@ -8461,7 +8461,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M8" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N8" t="n">
         <v>9.912735448118685</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J9" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K9" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L9" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M9" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P9" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q9" t="n">
         <v>12.27186175772305</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>94.06963836310746</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>45.3448822271198</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>152.4238292424253</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.92392750596322</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9093,16 +9093,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779359</v>
+        <v>288.8599467080534</v>
       </c>
       <c r="O16" t="n">
-        <v>261.1807297388069</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>70.37539003541775</v>
+        <v>70.37539003541849</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>19.42580962081429</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>164.9976890292287</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>70.37539003541733</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M22" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>355.473584977936</v>
+        <v>323.4621579218373</v>
       </c>
       <c r="O22" t="n">
-        <v>132.7701054016732</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>41.15010677908614</v>
       </c>
       <c r="R24" t="n">
-        <v>41.15010677908649</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>29.60653739727346</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>27.68353027345967</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>17.4558584513974</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.15010677908649</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>28.27983970834643</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>27.68353027346012</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>41.15010677908657</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>17.45585845139743</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>29.6065373972736</v>
       </c>
       <c r="P31" t="n">
-        <v>27.68353027346012</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>41.15010677908651</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>17.45585845139738</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>27.68353027346055</v>
       </c>
       <c r="K34" t="n">
-        <v>176.263004581586</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>17.45585845139783</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.15010677908624</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>50.1424955171496</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.3851139390375</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>41.15010677908651</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>13.94738828521193</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.3851139390375</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.15010677908649</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>176.2630045815868</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>50.1424955171488</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>17.45585845139783</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.15010677908649</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>79.38511393903823</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.25016903066951</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>257.9455674696495</v>
       </c>
       <c r="H11" t="n">
-        <v>72.64783821167188</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.8185422817731</v>
@@ -23436,7 +23436,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>95.55567488033603</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>75.80466867015323</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>279.8389192638835</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -23554,16 +23554,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>304.1685784545624</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
@@ -23712,16 +23712,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.172185796918</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>142.4357841056937</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.92997094151121</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>35.06214909504928</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>123.9336796414068</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>20.15617486925345</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>84.04434255120202</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458681</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>120.3193851118104</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>128.9073711041199</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24144,10 +24144,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250878</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578062</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>67.53405502304805</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>370.8047781615529</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>176.8928747889925</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.34346969091207</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120.8734059789258</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>87.46191663323947</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.445867145127856</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>108.3711135168207</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>154.6874073055281</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.9779897930421</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.445867145127856</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>92.97663033723211</v>
+        <v>165.1799166802997</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>303.8977885024635</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.0584736956206</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.34346969091207</v>
+        <v>28.50100753713342</v>
       </c>
       <c r="T29" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.2547922053491</v>
       </c>
       <c r="V31" t="n">
-        <v>250.5913889228639</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>171.6105130158332</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>327.5466076827827</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.34346969091207</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>74.72348212650959</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.749258596823182</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>312.480651618241</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.9779897930421</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.34346969091207</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>264.9515743598455</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.6863522464414</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.445867145127856</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S37" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.6181441030213</v>
+        <v>13.64593319386108</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>27.29520591489606</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.5923844622858</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>349.6857908895173</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.61521607760264</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.445867145127856</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>150.9449052174855</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>6.131484910150306</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>401.2839043164149</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>152.0299314587567</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>25.06618115057967</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>63.0295283742839</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>334.8815597913517</v>
       </c>
       <c r="E44" t="n">
-        <v>421.0343596056065</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.0584736956206</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.34346969091207</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>182.299274739017</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>73.65775951083896</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405828.5203988455</v>
+        <v>405828.5203988454</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>405828.5203988456</v>
+        <v>405828.5203988455</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>405828.5203988455</v>
+        <v>405828.5203988454</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487781.8616038879</v>
+        <v>487781.861603888</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>487781.861603888</v>
+        <v>487781.8616038879</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>18653.73891296436</v>
       </c>
       <c r="C2" t="n">
-        <v>18653.73891296435</v>
+        <v>18653.73891296436</v>
       </c>
       <c r="D2" t="n">
         <v>19239.24622240119</v>
       </c>
       <c r="E2" t="n">
-        <v>146080.8185214745</v>
+        <v>146080.8185214744</v>
       </c>
       <c r="F2" t="n">
-        <v>146080.8185214745</v>
+        <v>146080.8185214746</v>
       </c>
       <c r="G2" t="n">
         <v>146080.8185214745</v>
@@ -26343,10 +26343,10 @@
         <v>177587.2661915658</v>
       </c>
       <c r="L2" t="n">
-        <v>177587.2661915656</v>
+        <v>177587.2661915658</v>
       </c>
       <c r="M2" t="n">
-        <v>177587.2661915657</v>
+        <v>177587.2661915658</v>
       </c>
       <c r="N2" t="n">
         <v>177587.2661915658</v>
@@ -26355,7 +26355,7 @@
         <v>177587.2661915658</v>
       </c>
       <c r="P2" t="n">
-        <v>177587.2661915658</v>
+        <v>177587.2661915657</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137495.0702174697</v>
+        <v>137495.0702174701</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>4728.209364371914</v>
       </c>
       <c r="E4" t="n">
-        <v>14110.06128541146</v>
+        <v>14110.06128541147</v>
       </c>
       <c r="F4" t="n">
         <v>14110.06128541146</v>
       </c>
       <c r="G4" t="n">
-        <v>14110.06128541145</v>
+        <v>14110.06128541146</v>
       </c>
       <c r="H4" t="n">
         <v>14110.06128541145</v>
       </c>
       <c r="I4" t="n">
-        <v>11591.11900329372</v>
+        <v>11591.11900329371</v>
       </c>
       <c r="J4" t="n">
         <v>11591.11900329372</v>
       </c>
       <c r="K4" t="n">
-        <v>11591.11900329372</v>
+        <v>11591.11900329371</v>
       </c>
       <c r="L4" t="n">
         <v>11591.11900329372</v>
@@ -26481,34 +26481,34 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304157</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="J5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="K5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="L5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="M5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="N5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="O5" t="n">
-        <v>49408.99443194088</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="P5" t="n">
         <v>49408.9944319409</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="D6" t="n">
-        <v>-52621.96955742277</v>
+        <v>-53976.81703680647</v>
       </c>
       <c r="E6" t="n">
-        <v>-355380.9580367577</v>
+        <v>-356068.2182935148</v>
       </c>
       <c r="F6" t="n">
-        <v>95021.45642302145</v>
+        <v>94334.19616626456</v>
       </c>
       <c r="G6" t="n">
-        <v>95021.45642302153</v>
+        <v>94334.19616626456</v>
       </c>
       <c r="H6" t="n">
-        <v>95021.45642302147</v>
+        <v>94334.19616626453</v>
       </c>
       <c r="I6" t="n">
-        <v>-20907.91746113854</v>
+        <v>-21429.35430910595</v>
       </c>
       <c r="J6" t="n">
-        <v>116587.1527563312</v>
+        <v>116065.7159083642</v>
       </c>
       <c r="K6" t="n">
-        <v>116587.1527563312</v>
+        <v>116065.7159083641</v>
       </c>
       <c r="L6" t="n">
-        <v>116587.152756331</v>
+        <v>116065.7159083642</v>
       </c>
       <c r="M6" t="n">
-        <v>3585.081613835195</v>
+        <v>3063.644765868254</v>
       </c>
       <c r="N6" t="n">
-        <v>116587.1527563312</v>
+        <v>116065.7159083641</v>
       </c>
       <c r="O6" t="n">
-        <v>116587.1527563312</v>
+        <v>116065.7159083641</v>
       </c>
       <c r="P6" t="n">
-        <v>116587.1527563312</v>
+        <v>116065.715908364</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469463</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="J3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="K3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="L3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="M3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="N3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="O3" t="n">
-        <v>556.5030250927649</v>
+        <v>556.503025092765</v>
       </c>
       <c r="P3" t="n">
         <v>556.5030250927649</v>
@@ -26804,34 +26804,34 @@
         <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1123106072139</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="J4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="K4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="L4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="M4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="N4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="O4" t="n">
-        <v>613.112310607214</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="P4" t="n">
-        <v>613.1123106072141</v>
+        <v>613.1123106072142</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>392.0966196514721</v>
+        <v>392.096619651472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.2546492458187</v>
+        <v>126.2546492458189</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>159.6602346273103</v>
+        <v>159.6602346273107</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31521,16 +31521,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I8" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J8" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K8" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L8" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M8" t="n">
         <v>26.93111380928054</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H9" t="n">
         <v>0.7925487466267348</v>
@@ -31603,7 +31603,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J9" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K9" t="n">
         <v>13.25125667781857</v>
@@ -31630,13 +31630,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S9" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T9" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I10" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J10" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K10" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L10" t="n">
         <v>10.22842329214398</v>
@@ -31697,22 +31697,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O10" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P10" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R10" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S10" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U10" t="n">
         <v>0.003752631756931878</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32247,7 +32247,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
         <v>291.4251699938981</v>
@@ -32256,16 +32256,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
         <v>31.86273349432573</v>
@@ -32317,7 +32317,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L18" t="n">
         <v>200.9381683613497</v>
@@ -32326,7 +32326,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M19" t="n">
         <v>121.6192253234244</v>
@@ -32411,16 +32411,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S19" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
         <v>3.315028469640403</v>
@@ -32466,46 +32466,46 @@
         <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248256</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985688</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
-        <v>146.8011782494061</v>
+        <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161447</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581587</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530054</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670764</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938982</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301937</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100419</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050279</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1383713369558017</v>
+        <v>0.1383713369558016</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651298</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179018</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432574</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659501</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613498</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365857</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600877</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587203</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027711</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916808</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654184</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928487</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371161</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677274</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461801</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.8531412944541</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596675</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M22" t="n">
-        <v>121.6192253234245</v>
+        <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
-        <v>109.6639630765299</v>
+        <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701263</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288889</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391796</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640404</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0423195123783882</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H23" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I23" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J23" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K23" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L23" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M23" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N23" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O23" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R23" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S23" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T23" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U23" t="n">
         <v>0.1789758472660147</v>
@@ -32791,19 +32791,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K24" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L24" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M24" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N24" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O24" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P24" t="n">
         <v>228.5757425140453</v>
@@ -32812,16 +32812,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R24" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S24" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T24" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H25" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I25" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J25" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K25" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L25" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M25" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N25" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O25" t="n">
         <v>141.8444103957756</v>
@@ -32888,19 +32888,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R25" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S25" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T25" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H26" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I26" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J26" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K26" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M26" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N26" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O26" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R26" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S26" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T26" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U26" t="n">
         <v>0.1789758472660147</v>
@@ -33028,19 +33028,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K27" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L27" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M27" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N27" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O27" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P27" t="n">
         <v>228.5757425140453</v>
@@ -33049,16 +33049,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R27" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S27" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T27" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H28" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I28" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J28" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K28" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L28" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M28" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N28" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O28" t="n">
         <v>141.8444103957756</v>
@@ -33125,19 +33125,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R28" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S28" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T28" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H29" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J29" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K29" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L29" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M29" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N29" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O29" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R29" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S29" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T29" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U29" t="n">
         <v>0.1789758472660147</v>
@@ -33265,19 +33265,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K30" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L30" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M30" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N30" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O30" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P30" t="n">
         <v>228.5757425140453</v>
@@ -33286,16 +33286,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R30" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S30" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T30" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H31" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I31" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J31" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K31" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L31" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M31" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N31" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O31" t="n">
         <v>141.8444103957756</v>
@@ -33362,19 +33362,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R31" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S31" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T31" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H32" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I32" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J32" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K32" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L32" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M32" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N32" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O32" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R32" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S32" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T32" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U32" t="n">
         <v>0.1789758472660147</v>
@@ -33502,19 +33502,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K33" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L33" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M33" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N33" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O33" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P33" t="n">
         <v>228.5757425140453</v>
@@ -33523,16 +33523,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R33" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S33" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T33" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H34" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I34" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J34" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K34" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L34" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M34" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N34" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O34" t="n">
         <v>141.8444103957756</v>
@@ -33599,19 +33599,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R34" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S34" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T34" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H35" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I35" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J35" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K35" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M35" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N35" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O35" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R35" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S35" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T35" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U35" t="n">
         <v>0.1789758472660147</v>
@@ -33739,19 +33739,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K36" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L36" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M36" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N36" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O36" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P36" t="n">
         <v>228.5757425140453</v>
@@ -33760,16 +33760,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R36" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S36" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T36" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H37" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I37" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J37" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K37" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L37" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M37" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N37" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O37" t="n">
         <v>141.8444103957756</v>
@@ -33836,19 +33836,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R37" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S37" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T37" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H38" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I38" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J38" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K38" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L38" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M38" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N38" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O38" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R38" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S38" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T38" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U38" t="n">
         <v>0.1789758472660147</v>
@@ -33976,19 +33976,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K39" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L39" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M39" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N39" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O39" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P39" t="n">
         <v>228.5757425140453</v>
@@ -33997,16 +33997,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R39" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S39" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T39" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H40" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I40" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J40" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K40" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L40" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M40" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N40" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O40" t="n">
         <v>141.8444103957756</v>
@@ -34073,19 +34073,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R40" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S40" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T40" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.237198090825184</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H41" t="n">
         <v>22.91170494766342</v>
       </c>
       <c r="I41" t="n">
-        <v>86.24957939653798</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J41" t="n">
-        <v>189.8793914611741</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5799866458042</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L41" t="n">
-        <v>353.0466377178955</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M41" t="n">
-        <v>392.8324092656079</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N41" t="n">
-        <v>399.1888483411649</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O41" t="n">
-        <v>376.942709825522</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7118819582752</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5922253305982</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R41" t="n">
         <v>140.5323945727976</v>
       </c>
       <c r="S41" t="n">
-        <v>50.98015149467893</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T41" t="n">
-        <v>9.793334642587247</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U41" t="n">
         <v>0.1789758472660147</v>
@@ -34213,19 +34213,19 @@
         <v>113.0908647502194</v>
       </c>
       <c r="K42" t="n">
-        <v>193.2903007060408</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L42" t="n">
         <v>259.9026628039371</v>
       </c>
       <c r="M42" t="n">
-        <v>303.2941486755568</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N42" t="n">
-        <v>311.3214423110931</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O42" t="n">
-        <v>284.7982981340303</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P42" t="n">
         <v>228.5757425140453</v>
@@ -34234,16 +34234,16 @@
         <v>152.7968305877343</v>
       </c>
       <c r="R42" t="n">
-        <v>74.31940399257721</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S42" t="n">
         <v>22.23387086101753</v>
       </c>
       <c r="T42" t="n">
-        <v>4.824776226983498</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07875042807916488</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>1.003530045249248</v>
       </c>
       <c r="H43" t="n">
-        <v>8.922294402306958</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I43" t="n">
         <v>30.17888536076831</v>
       </c>
       <c r="J43" t="n">
-        <v>70.94957419912184</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K43" t="n">
         <v>116.5919452571399</v>
       </c>
       <c r="L43" t="n">
-        <v>149.1975487273291</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M43" t="n">
         <v>157.3078960930253</v>
       </c>
       <c r="N43" t="n">
-        <v>153.5674659243691</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O43" t="n">
         <v>141.8444103957756</v>
@@ -34310,19 +34310,19 @@
         <v>121.3723974726908</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.03195678900749</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R43" t="n">
         <v>45.12236003457073</v>
       </c>
       <c r="S43" t="n">
-        <v>17.48879178857098</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T43" t="n">
         <v>4.287810193337696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05473800246814087</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>221.1086540916328</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
         <v>178.4230816471201</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,22 +35573,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
+        <v>93.43012434365872</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99.04378543193859</v>
+      </c>
+      <c r="N13" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M13" t="n">
-        <v>144.3886676590584</v>
-      </c>
-      <c r="N13" t="n">
-        <v>97.9784910019676</v>
-      </c>
       <c r="O13" t="n">
-        <v>87.16477557810538</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3710229438823</v>
+        <v>223.8794940314514</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>453.4520759799035</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.3084810155651</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365875</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M16" t="n">
+        <v>99.04378543193859</v>
+      </c>
+      <c r="N16" t="n">
+        <v>386.838437710021</v>
+      </c>
+      <c r="O16" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N16" t="n">
-        <v>453.4520759799035</v>
-      </c>
-      <c r="O16" t="n">
-        <v>348.3455053169123</v>
-      </c>
       <c r="P16" t="n">
-        <v>71.45566478902612</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35895,7 +35895,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
         <v>254.034210637874</v>
@@ -35907,7 +35907,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>197.4144057639431</v>
+        <v>197.4144057639438</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35980,10 +35980,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.3845535096019</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055223</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325472</v>
+        <v>88.601716534069</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365875</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0414744611673</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799036</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799036</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.34794198810393</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589337</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213354</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255358</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535736</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326304</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378741</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199624</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.657171816475</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332712</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201447</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285254</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972892</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>225.3229807893089</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960193</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055224</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325475</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799036</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799036</v>
+        <v>421.4406489238049</v>
       </c>
       <c r="O22" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902614</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810394</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J23" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K23" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L23" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M23" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N23" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O23" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P23" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q23" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R23" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.04033727809627</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J24" t="n">
-        <v>92.47975041688602</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K24" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M24" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N24" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O24" t="n">
-        <v>261.6264084118081</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P24" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.0497922987558</v>
+        <v>171.1998990778419</v>
       </c>
       <c r="R24" t="n">
-        <v>91.79659137751955</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.31281821521998</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K25" t="n">
-        <v>95.62729080442789</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L25" t="n">
         <v>507.4695904388653</v>
       </c>
       <c r="M25" t="n">
-        <v>552.4450627296424</v>
+        <v>164.338993598813</v>
       </c>
       <c r="N25" t="n">
         <v>534.8720223648094</v>
       </c>
       <c r="O25" t="n">
-        <v>500.862722193516</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P25" t="n">
-        <v>126.675127088164</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.41239402422255</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J26" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K26" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L26" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M26" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N26" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O26" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P26" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q26" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R26" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.04033727809627</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J27" t="n">
-        <v>92.47975041688602</v>
+        <v>109.9356088682834</v>
       </c>
       <c r="K27" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L27" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M27" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N27" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O27" t="n">
-        <v>261.6264084118081</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P27" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q27" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R27" t="n">
-        <v>91.79659137751955</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>50.31281821521998</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K28" t="n">
-        <v>95.62729080442789</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4695904388653</v>
+        <v>127.278788831628</v>
       </c>
       <c r="M28" t="n">
-        <v>552.4450627296424</v>
+        <v>163.0122959098859</v>
       </c>
       <c r="N28" t="n">
         <v>534.8720223648094</v>
       </c>
       <c r="O28" t="n">
-        <v>500.862722193516</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P28" t="n">
-        <v>126.6751270881645</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.41239402422255</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J29" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K29" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L29" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M29" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O29" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P29" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q29" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R29" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.04033727809627</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J30" t="n">
-        <v>133.6298571959726</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K30" t="n">
-        <v>170.8910668727075</v>
+        <v>188.3469253241049</v>
       </c>
       <c r="L30" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M30" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N30" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O30" t="n">
-        <v>261.6264084118081</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P30" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q30" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R30" t="n">
-        <v>50.64648459843306</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.31281821521998</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K31" t="n">
-        <v>95.62729080442789</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L31" t="n">
         <v>507.4695904388653</v>
       </c>
       <c r="M31" t="n">
-        <v>552.4450627296424</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N31" t="n">
         <v>534.8720223648094</v>
       </c>
       <c r="O31" t="n">
-        <v>500.862722193516</v>
+        <v>148.9517602946248</v>
       </c>
       <c r="P31" t="n">
-        <v>126.6751270881645</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.41239402422255</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J32" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K32" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L32" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M32" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N32" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O32" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P32" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q32" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R32" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.04033727809627</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J33" t="n">
-        <v>92.47975041688602</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K33" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L33" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M33" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N33" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O33" t="n">
-        <v>302.7765151908947</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P33" t="n">
-        <v>206.8049013092166</v>
+        <v>224.2607597606141</v>
       </c>
       <c r="Q33" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R33" t="n">
-        <v>50.64648459843306</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.0216229103926</v>
+        <v>77.99634848868054</v>
       </c>
       <c r="K34" t="n">
-        <v>271.8902953860139</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L34" t="n">
-        <v>127.2787888316279</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M34" t="n">
         <v>552.4450627296424</v>
@@ -37241,13 +37241,13 @@
         <v>534.8720223648094</v>
       </c>
       <c r="O34" t="n">
-        <v>500.862722193516</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P34" t="n">
-        <v>98.99159681470435</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J35" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K35" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L35" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M35" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N35" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O35" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P35" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q35" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R35" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.734585605785</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J36" t="n">
-        <v>109.9356088682839</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K36" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M36" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N36" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O36" t="n">
-        <v>261.6264084118081</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q36" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R36" t="n">
-        <v>50.64648459843306</v>
+        <v>91.79659137751932</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>345.4077040509148</v>
       </c>
       <c r="L37" t="n">
-        <v>127.2787888316279</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M37" t="n">
-        <v>552.4450627296424</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N37" t="n">
-        <v>534.8720223648094</v>
+        <v>182.9610604659184</v>
       </c>
       <c r="O37" t="n">
-        <v>500.862722193516</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P37" t="n">
-        <v>98.99159681470435</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.79750796326</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4594319755872</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K38" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L38" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M38" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N38" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O38" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P38" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q38" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R38" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.04033727809627</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J39" t="n">
-        <v>92.47975041688602</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K39" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L39" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M39" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N39" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O39" t="n">
-        <v>302.7765151908947</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P39" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q39" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R39" t="n">
-        <v>50.64648459843306</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>345.4077040509148</v>
       </c>
       <c r="L40" t="n">
-        <v>127.2787888316279</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M40" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N40" t="n">
-        <v>534.8720223648094</v>
+        <v>146.7659532339807</v>
       </c>
       <c r="O40" t="n">
-        <v>500.862722193516</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P40" t="n">
-        <v>98.99159681470435</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.79750796326</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.70167685257448</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J41" t="n">
         <v>160.4594319755876</v>
       </c>
       <c r="K41" t="n">
-        <v>248.8153858509949</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L41" t="n">
         <v>314.7345952852726</v>
       </c>
       <c r="M41" t="n">
-        <v>355.401146366176</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N41" t="n">
-        <v>361.9092255067189</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O41" t="n">
-        <v>339.5517504694979</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P41" t="n">
-        <v>284.1365201480439</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q41" t="n">
         <v>205.4675507260002</v>
       </c>
       <c r="R41" t="n">
-        <v>105.4997446780011</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.04033727809627</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J42" t="n">
-        <v>92.47975041688602</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K42" t="n">
         <v>170.8910668727075</v>
       </c>
       <c r="L42" t="n">
-        <v>237.3875760897075</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M42" t="n">
-        <v>280.1973681632288</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N42" t="n">
-        <v>289.9784140975514</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O42" t="n">
-        <v>261.6264084118081</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P42" t="n">
-        <v>206.8049013092166</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q42" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R42" t="n">
-        <v>91.79659137751955</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K43" t="n">
-        <v>345.4077040509148</v>
+        <v>271.8902953860147</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4695904388653</v>
+        <v>127.278788831628</v>
       </c>
       <c r="M43" t="n">
-        <v>184.8749517186883</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N43" t="n">
-        <v>132.8185649487688</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O43" t="n">
-        <v>500.862722193516</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P43" t="n">
-        <v>414.9069549695605</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q43" t="n">
         <v>212.314916628161</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.04033727809627</v>
+        <v>48.734585605785</v>
       </c>
       <c r="J45" t="n">
         <v>92.47975041688602</v>
       </c>
       <c r="K45" t="n">
-        <v>170.8910668727075</v>
+        <v>188.3469253241053</v>
       </c>
       <c r="L45" t="n">
         <v>237.3875760897075</v>
@@ -38119,7 +38119,7 @@
         <v>130.0497922987558</v>
       </c>
       <c r="R45" t="n">
-        <v>91.79659137751955</v>
+        <v>50.64648459843306</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K46" t="n">
-        <v>345.4077040509148</v>
+        <v>95.62729080442789</v>
       </c>
       <c r="L46" t="n">
         <v>127.2787888316279</v>
@@ -38192,10 +38192,10 @@
         <v>500.862722193516</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3767107537426</v>
+        <v>414.9069549695605</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.41239402422255</v>
+        <v>72.66256305489206</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
